--- a/spare_parts/cash.xlsx
+++ b/spare_parts/cash.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
